--- a/testData/test_data.xlsx
+++ b/testData/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6920"/>
+    <workbookView windowWidth="18600" windowHeight="5700"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>req@yopmail.com</t>
+    <t>prisha@yopmail.com</t>
   </si>
   <si>
     <t>Test@1234</t>
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1321,7 +1321,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="req@yopmail.com" tooltip="mailto:req@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="prisha@yopmail.com" tooltip="mailto:prisha@yopmail.com"/>
     <hyperlink ref="B2" r:id="rId2" display="Test@1234" tooltip="mailto:Test@1234"/>
     <hyperlink ref="A3" r:id="rId3" display="kashvi@yopmail.com" tooltip="mailto:kashvi@yopmail.com"/>
   </hyperlinks>
